--- a/biology/Botanique/Mourera_fluviatilis/Mourera_fluviatilis.xlsx
+++ b/biology/Botanique/Mourera_fluviatilis/Mourera_fluviatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mourera fluviatilis est une espèce de plantes à fleurs de la famille des Podostemaceae. C'est une plante aquatique saxicole néotropicale connue en Guyane sous le nom de salade coumarou (créole), kumalu nanian (Aluku)[2] ou wïja (Wayana)[3].
-Mourera fluviatilis Aubl. est l'espèce type du genre Mourera Aubl.[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mourera fluviatilis est une espèce de plantes à fleurs de la famille des Podostemaceae. C'est une plante aquatique saxicole néotropicale connue en Guyane sous le nom de salade coumarou (créole), kumalu nanian (Aluku) ou wïja (Wayana).
+Mourera fluviatilis Aubl. est l'espèce type du genre Mourera Aubl..
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grande plante herbacée à feuilles polymorphes, entières à pennatiséquées, de 8–200 × 2–30 cm avec des excroissances rigides sur la face supérieure. Inflorescences dressées, en forme d'épée, hautes de 5–65 cm, pour 2–30 cm de large, avec 40–90 fleurs roses à violettes. Les fleurs comportent 16–20 tépales, écailleux à lancéolés, de moins de 0,5 mm de large, 20–35 étamines longues de 6–12 mm, disposés en 1 ou 2 verticilles. Le fruit est une capsule à 2 valves portant chacune 3 ou 5 nervures. On compte environ 2000 graines par fruit[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grande plante herbacée à feuilles polymorphes, entières à pennatiséquées, de 8–200 × 2–30 cm avec des excroissances rigides sur la face supérieure. Inflorescences dressées, en forme d'épée, hautes de 5–65 cm, pour 2–30 cm de large, avec 40–90 fleurs roses à violettes. Les fleurs comportent 16–20 tépales, écailleux à lancéolés, de moins de 0,5 mm de large, 20–35 étamines longues de 6–12 mm, disposés en 1 ou 2 verticilles. Le fruit est une capsule à 2 valves portant chacune 3 ou 5 nervures. On compte environ 2000 graines par fruit.
 Mourera fluviatilis est l'espèce ayant les plus grandes feuilles chez les Podostemaceae et se distingue par sa grande inflorescence dressée et aplatie.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Mourera fluviatilis sur le plateau des Guyanes et au nord-est de l'Amérique du Sud : Guyana, Suriname, Guyane, Brésil, Bolivie, Venezuela dans les États de Bolívar (Raudal Budare sur le Río Suapure, Río Caroní au-dessus de San Félix et à Salto Revaloso, haut Río Caura, Río Toro), et de l'Amazonas (Río Yureba à Salto Yureba)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Mourera fluviatilis sur le plateau des Guyanes et au nord-est de l'Amérique du Sud : Guyana, Suriname, Guyane, Brésil, Bolivie, Venezuela dans les États de Bolívar (Raudal Budare sur le Río Suapure, Río Caroní au-dessus de San Félix et à Salto Revaloso, haut Río Caura, Río Toro), et de l'Amazonas (Río Yureba à Salto Yureba).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mourera fluviatilis colonise les rochers des sauts émergeant des cours d'eau tumultueux entre 30 et 400 m d'altitude. Elle est consommée par des escargots et des poissons dont divers gros Serrasalmidae végétariens tels les "coumarous" (Myleus rhomboidalis) auxquels elle doit son nom. Ses feuilles "thalloïdes" très découpées constitueraient une adaptation aux courants rapides et seraient le fruit de processus morphogénétiques originaux[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mourera fluviatilis colonise les rochers des sauts émergeant des cours d'eau tumultueux entre 30 et 400 m d'altitude. Elle est consommée par des escargots et des poissons dont divers gros Serrasalmidae végétariens tels les "coumarous" (Myleus rhomboidalis) auxquels elle doit son nom. Ses feuilles "thalloïdes" très découpées constitueraient une adaptation aux courants rapides et seraient le fruit de processus morphogénétiques originaux.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Mourera fluviatilis sont utilisées comme appât pour les poissons de la famille des Serrasalminae[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Mourera fluviatilis sont utilisées comme appât pour les poissons de la famille des Serrasalminae.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MOURERA fluviatilis. (Tabula 233.)
 Herba, radice repente. Caules fimplices, afperi. Folia alterna, lobis mulriparcitis in lobulos undulatos, crifpos. Folia fuperne &amp; inferne atrovirent, &amp; ad angulos nervorum aculeo carnofo, rigido muniuntur. Flores fpicati, terminales ; pars inferior caulis cylindracea, fuperior qua: flores fert, ex uno latere convexa, &amp;altero concava. Flores folitarii, pedunculaci, feriatim difpofiti, fupra utrumque marginem canaliculi. Singulus flos ante expanfionem, foliolis tribusinvolvitur, duobus internis oppoiitis, altero majori coopertis, deciduis ; pedunculus floris expand vagina membranacea, tenui, ban* obducitur. Filamenta flaminum violacea jfont, inferiori parte latiora, &amp; fuperiore capillacea. Anthers lutea:. Difcus duodecim aculeis minimis in circuitu munitur.
 Nomen Caribæaum MOUREROU.
